--- a/Pruebas Proyecto.xlsx
+++ b/Pruebas Proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Gustavo\Desktop\EntregaFinal\EntregaFinal-MieresBorras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Gustavo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,9 +68,6 @@
     <t>LogOut</t>
   </si>
   <si>
-    <t>Cerrar sesion</t>
-  </si>
-  <si>
     <t>Cierre de sesion exitoso. Una vez desloqueado no se puede acceder a la edicion</t>
   </si>
   <si>
@@ -81,18 +78,6 @@
 </t>
   </si>
   <si>
-    <t>Exitoso. El usuario externo a la pagina puede editar</t>
-  </si>
-  <si>
-    <t>Clickeando el boton del lapiz amarillo podemos actualizar los datos, cambiar el nombre, precio etc. Por otro lado podemos eliminar algun dato que ya no queremos clickeando el boton rojo. Por ultimo, con el signo + podemos agregar productos</t>
-  </si>
-  <si>
-    <t>Edicion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edicion exitosa, unicamente cuando estamos logueados ya que los empleados son los que tienen acceso a esa funcion y no las personas que no lo son </t>
-  </si>
-  <si>
     <t>Cambio de contraseña</t>
   </si>
   <si>
@@ -151,6 +136,21 @@
   </si>
   <si>
     <t>Version 123.0.6312.86</t>
+  </si>
+  <si>
+    <t>Exitoso. El usuario externo a la pagina no puede editar</t>
+  </si>
+  <si>
+    <t>Clickeando el boton del lapiz amarillo podemos actualizar los datos, cambiar el nombre, precio etc. Por otro lado podemos eliminar algun dato que ya no queremos clickeando el boton rojo. Por ultimo, con el signo + podemos agregar productos y con la lupa podemos buscar</t>
+  </si>
+  <si>
+    <t>Edicion exitosa, unicamente cuando estamos logueados ya que los empleados son los que tienen acceso a esa funcion.</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Edición</t>
   </si>
 </sst>
 </file>
@@ -243,9 +243,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -254,11 +251,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,69 +556,69 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -641,22 +641,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>45379</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -708,13 +708,13 @@
         <v>45379</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -728,19 +728,19 @@
         <v>45379</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -748,13 +748,13 @@
         <v>45379</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -768,13 +768,13 @@
         <v>45379</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
